--- a/Input_Data.xlsx
+++ b/Input_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\OTM_UTGCAB\VERSÃO_19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\OTM_UTGCAB\GITLAB\VERSÃO_19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D4C7D9-D021-43E3-BC7D-BDF574AFAC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F246E59-459A-47BE-8120-DD4F28CE9428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="682" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1347,7 +1347,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,7 +1405,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="1">
-        <v>200</v>
+        <v>5400000</v>
       </c>
       <c r="F4" s="1">
         <v>5400000</v>
@@ -1416,10 +1416,10 @@
         <v>27</v>
       </c>
       <c r="B5" s="1">
-        <v>1000000</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C5" s="6">
-        <v>3000000</v>
+        <v>300</v>
       </c>
       <c r="F5" s="6">
         <v>3000000</v>

--- a/Input_Data.xlsx
+++ b/Input_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\OTM_UTGCAB\GITLAB\VERSÃO_19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\OO\VERSÃO_19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F246E59-459A-47BE-8120-DD4F28CE9428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D25861-FC11-4633-B955-0F4E30D91C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="682" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
   <si>
     <t>Methane</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>URLII</t>
+  </si>
+  <si>
+    <t>URLIII</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1350,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,7 +1394,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C3" s="1">
-        <v>16000000</v>
+        <v>8000000</v>
       </c>
       <c r="F3" s="1">
         <v>8000000</v>
@@ -1402,7 +1405,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="1">
-        <v>100</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C4" s="1">
         <v>5400000</v>
@@ -1419,7 +1422,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C5" s="6">
-        <v>300</v>
+        <v>3000000</v>
       </c>
       <c r="F5" s="6">
         <v>3000000</v>
@@ -1435,6 +1438,7 @@
       <c r="C6" s="1">
         <v>16200000</v>
       </c>
+      <c r="D6" s="1"/>
       <c r="F6" s="1">
         <v>16200000</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>5400000</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="1"/>
     </row>
@@ -1459,11 +1463,20 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
         <v>5400000</v>
       </c>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q9" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1480,7 +1493,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,7 +1517,7 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2">
         <v>100</v>
